--- a/notebooks/output/goal.xlsx
+++ b/notebooks/output/goal.xlsx
@@ -40,7 +40,7 @@
     <t>Astro-WISE</t>
   </si>
   <si>
-    <t>Becker and Chambers</t>
+    <t>Becker and Chambers**</t>
   </si>
   <si>
     <t>Bochner, Gude, and Schreiber</t>
@@ -49,16 +49,16 @@
     <t>CPL</t>
   </si>
   <si>
-    <t>CXXR</t>
+    <t>CXXR*</t>
   </si>
   <si>
     <t>Datatrack</t>
   </si>
   <si>
-    <t>ES3</t>
-  </si>
-  <si>
-    <t>ESSW</t>
+    <t>ES3*</t>
+  </si>
+  <si>
+    <t>ESSW*</t>
   </si>
   <si>
     <t>IncPy</t>
@@ -67,16 +67,16 @@
     <t>Lancet</t>
   </si>
   <si>
-    <t>Magni</t>
-  </si>
-  <si>
-    <t>Michaelides et al.</t>
+    <t>Magni*</t>
+  </si>
+  <si>
+    <t>Michaelides et al.*</t>
   </si>
   <si>
     <t>noWorkflow</t>
   </si>
   <si>
-    <t>Provenance Curious</t>
+    <t>Provenance Curious*</t>
   </si>
   <si>
     <t>pypet</t>
@@ -91,19 +91,19 @@
     <t>SisGExp</t>
   </si>
   <si>
+    <t>SPADE</t>
+  </si>
+  <si>
     <t>StarFlow</t>
   </si>
   <si>
-    <t>Sumatra</t>
-  </si>
-  <si>
-    <t>Tariq, Ali, and Gehani</t>
+    <t>Sumatra*</t>
   </si>
   <si>
     <t>Variolite</t>
   </si>
   <si>
-    <t>VCR</t>
+    <t>VCR*</t>
   </si>
   <si>
     <t>versuchung</t>
@@ -603,7 +603,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -950,7 +950,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
@@ -987,10 +987,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -999,10 +999,10 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -1013,10 +1013,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -1039,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1051,10 +1051,10 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
         <v>37</v>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1253,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
         <v>6</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
       </c>
       <c r="H30">
         <v>0</v>
